--- a/Threshold/Mn/3His/2.xlsx
+++ b/Threshold/Mn/3His/2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Mn\3His\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3881A4DF-F5A7-41D5-ABC7-9A10AFB96F27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E7E999-573A-41F2-8C3A-386AA26078B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="9690" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>ratio_threshold_range</t>
-  </si>
-  <si>
-    <t>theta_threshold_range</t>
   </si>
   <si>
     <t>pie_threshold_range</t>
@@ -427,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF80A70-DF38-4711-9C26-F73716934B88}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,25 +486,15 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>17.7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>